--- a/SamplingPlan/SamplingDesign.xlsx
+++ b/SamplingPlan/SamplingDesign.xlsx
@@ -4,16 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="0" windowWidth="25600" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="3800" yWindow="0" windowWidth="25600" windowHeight="16120" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="StudyDesign" sheetId="1" r:id="rId1"/>
-    <sheet name="StaffingCommitees" sheetId="2" r:id="rId2"/>
-    <sheet name="Law" sheetId="3" r:id="rId3"/>
-    <sheet name="Disclosure" sheetId="4" r:id="rId4"/>
-    <sheet name="Nothing" sheetId="5" r:id="rId5"/>
-    <sheet name="RNsReg" sheetId="6" r:id="rId6"/>
-    <sheet name="HospitalStats" sheetId="7" r:id="rId7"/>
+    <sheet name="Laws.Regs" sheetId="2" r:id="rId2"/>
+    <sheet name="Nothing" sheetId="5" r:id="rId3"/>
+    <sheet name="RNsReg" sheetId="6" r:id="rId4"/>
+    <sheet name="HospitalStats" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="95">
   <si>
     <t>State</t>
   </si>
@@ -234,15 +232,6 @@
     <t>fh</t>
   </si>
   <si>
-    <t>Staffing Commitees</t>
-  </si>
-  <si>
-    <t>State Laws</t>
-  </si>
-  <si>
-    <t>Disclosure</t>
-  </si>
-  <si>
     <t>Nothing</t>
   </si>
   <si>
@@ -273,9 +262,6 @@
     <t>RNs</t>
   </si>
   <si>
-    <t>SC,SL,Disc,No</t>
-  </si>
-  <si>
     <t>Wh-Hospital Idea</t>
   </si>
   <si>
@@ -292,6 +278,36 @@
   </si>
   <si>
     <t>0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">block of questions - what are regulations in hospitals, something v. nothing -- doesn’t mean hospital does not follow that minimum </t>
+  </si>
+  <si>
+    <t>idealistic -- something v. nothing w. proportionate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realistic -- 1 and 1 equal allocation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hospitals are clusters ( 1 stage or 2 stage) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hospitals are clusters( 1 stage or 2 stage) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">strata clsuter strata cluster </t>
+  </si>
+  <si>
+    <t>Law/Regulations</t>
+  </si>
+  <si>
+    <t>Number of States</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Law.Regs, Nothing</t>
   </si>
 </sst>
 </file>
@@ -371,7 +387,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -431,15 +447,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,9 +487,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -475,8 +499,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -506,6 +539,13 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -535,24 +575,103 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -560,19 +679,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -594,7 +701,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -620,33 +727,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H6" totalsRowCount="1" headerRowDxfId="16">
-  <autoFilter ref="A1:H6"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Stratum" totalsRowLabel="Total" dataDxfId="0" totalsRowDxfId="15"/>
-    <tableColumn id="2" name="Nh-Hospital Idea" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I4" totalsRowCount="1" headerRowDxfId="18">
+  <autoFilter ref="A1:I3"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Stratum" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="8"/>
+    <tableColumn id="9" name="Number of States" totalsRowLabel="51" dataDxfId="11" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Nh-Hospital Idea" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="6">
       <totalsRowFormula>SUM(Table1[Nh-Hospital Idea])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Nh-Nursing Idea" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="6" name="Nh-Nursing Idea" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="5">
       <totalsRowFormula>SUM(Table1[Nh-Nursing Idea])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Wh-Hospital Idea" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
-      <calculatedColumnFormula>B2/$B$6</calculatedColumnFormula>
+    <tableColumn id="3" name="Wh-Hospital Idea" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="4">
+      <calculatedColumnFormula>C2/($C$4)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Wh-Hospital Idea])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Wh-NursingIdea" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
-      <calculatedColumnFormula>C2/($C$6)</calculatedColumnFormula>
+    <tableColumn id="7" name="Wh-NursingIdea" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="3">
+      <calculatedColumnFormula>D2/$D$4</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Wh-NursingIdea])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="nh-Hospitals" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
-      <calculatedColumnFormula>H2*B2</calculatedColumnFormula>
+    <tableColumn id="4" name="nh-Hospitals" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="2">
+      <calculatedColumnFormula>I2*C2</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[nh-Hospitals])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="nh-Nurses" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
-      <calculatedColumnFormula>C2*H2</calculatedColumnFormula>
+    <tableColumn id="8" name="nh-Nurses" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
+      <calculatedColumnFormula>D2*I2</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[nh-Nurses])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="fh" totalsRowLabel="0.05" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="fh" totalsRowLabel="0.05" dataDxfId="12" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -974,268 +1082,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="1" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="9">
+        <v>14</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1601</v>
+      </c>
+      <c r="D2" s="18">
+        <v>1527234</v>
+      </c>
+      <c r="E2" s="18">
+        <f t="shared" ref="E2:E3" si="0">C2/($C$4)</f>
+        <v>0.41146234901053713</v>
+      </c>
+      <c r="F2" s="18">
+        <f t="shared" ref="F2:F3" si="1">D2/$D$4</f>
+        <v>0.45095474371860483</v>
+      </c>
+      <c r="G2" s="18">
+        <f>I2*C2</f>
+        <v>80.050000000000011</v>
+      </c>
+      <c r="H2" s="18">
+        <f>D2*I2</f>
+        <v>76361.7</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="13">
-        <v>872</v>
-      </c>
-      <c r="C2" s="13">
-        <v>821064</v>
-      </c>
-      <c r="D2" s="12">
-        <f t="shared" ref="D2:D5" si="0">B2/$B$6</f>
-        <v>0.22410691338987407</v>
-      </c>
-      <c r="E2" s="12">
-        <f t="shared" ref="E2:E5" si="1">C2/($C$6)</f>
-        <v>0.24244006203147164</v>
-      </c>
-      <c r="F2" s="14">
-        <f t="shared" ref="F2:F5" si="2">H2*B2</f>
-        <v>43.6</v>
-      </c>
-      <c r="G2" s="14">
-        <f t="shared" ref="G2:G5" si="3">C2*H2</f>
-        <v>41053.200000000004</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="12">
-        <v>447</v>
-      </c>
-      <c r="C3" s="12">
-        <v>440354</v>
-      </c>
-      <c r="D3" s="12">
-        <f t="shared" si="0"/>
-        <v>0.11488049344641481</v>
-      </c>
-      <c r="E3" s="12">
-        <f t="shared" si="1"/>
-        <v>0.13002573621034008</v>
-      </c>
-      <c r="F3" s="14">
-        <f t="shared" si="2"/>
-        <v>22.35</v>
-      </c>
-      <c r="G3" s="14">
-        <f t="shared" si="3"/>
-        <v>22017.7</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="12">
-        <v>282</v>
-      </c>
-      <c r="C4" s="12">
-        <v>265816</v>
-      </c>
-      <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>7.2474942174248269E-2</v>
-      </c>
-      <c r="E4" s="12">
-        <f t="shared" si="1"/>
-        <v>7.8488945476793123E-2</v>
-      </c>
-      <c r="F4" s="14">
-        <f t="shared" si="2"/>
-        <v>14.100000000000001</v>
-      </c>
-      <c r="G4" s="14">
-        <f t="shared" si="3"/>
-        <v>13290.800000000001</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="B3" s="9">
+        <v>37</v>
+      </c>
+      <c r="C3" s="11">
         <v>2290</v>
       </c>
-      <c r="C5" s="12">
+      <c r="D3" s="11">
         <v>1859434</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E3" s="18">
         <f t="shared" si="0"/>
         <v>0.58853765098946287</v>
       </c>
-      <c r="E5" s="12">
+      <c r="F3" s="18">
         <f t="shared" si="1"/>
         <v>0.54904525628139511</v>
       </c>
-      <c r="F5" s="14">
-        <f t="shared" si="2"/>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3" si="2">I3*C3</f>
         <v>114.5</v>
       </c>
-      <c r="G5" s="14">
-        <f t="shared" si="3"/>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3" si="3">D3*I3</f>
         <v>92971.700000000012</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I3" s="11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="16">
+    <row r="4" spans="1:9">
+      <c r="A4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="14">
         <f>SUM(Table1[Nh-Hospital Idea])</f>
         <v>3891</v>
       </c>
-      <c r="C6" s="16">
+      <c r="D4" s="14">
         <f>SUM(Table1[Nh-Nursing Idea])</f>
         <v>3386668</v>
       </c>
-      <c r="D6" s="15">
+      <c r="E4" s="13">
         <f>SUM(Table1[Wh-Hospital Idea])</f>
         <v>1</v>
       </c>
-      <c r="E6" s="15">
+      <c r="F4" s="13">
         <f>SUM(Table1[Wh-NursingIdea])</f>
         <v>1</v>
       </c>
-      <c r="F6" s="17">
+      <c r="G4" s="15">
         <f>SUM(Table1[nh-Hospitals])</f>
         <v>194.55</v>
       </c>
-      <c r="G6" s="17">
+      <c r="H4" s="15">
         <f>SUM(Table1[nh-Nurses])</f>
         <v>169333.40000000002</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12">
+      <c r="I4" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
         <v>3891</v>
       </c>
-      <c r="C12" s="9">
+      <c r="D10" s="8">
         <f>SUM(Table1[Nh-Nursing Idea])</f>
         <v>3386668</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13">
+    <row r="11" spans="1:9">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11">
         <v>195</v>
       </c>
-      <c r="C13">
+      <c r="D11">
         <v>169333</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10">
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10">
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10">
+      <c r="D29" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1252,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1281,11 +1369,11 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(StaffingCommitees!A2, HospitalStats!$A$2:$A$57,0),1)</f>
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Laws.Regs!A2, HospitalStats!$A$2:$A$57,0),1)</f>
         <v>34</v>
       </c>
       <c r="C2">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(StaffingCommitees!A2, RNsReg!$A$2:$A$52,0),1)</f>
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Laws.Regs!A2, RNsReg!$A$2:$A$52,0),1)</f>
         <v>45440</v>
       </c>
     </row>
@@ -1294,11 +1382,11 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(StaffingCommitees!A3, HospitalStats!$A$2:$A$57,0),1)</f>
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Laws.Regs!A3, HospitalStats!$A$2:$A$57,0),1)</f>
         <v>143</v>
       </c>
       <c r="C3">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(StaffingCommitees!A3, RNsReg!$A$2:$A$52,0),1)</f>
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Laws.Regs!A3, RNsReg!$A$2:$A$52,0),1)</f>
         <v>157806</v>
       </c>
     </row>
@@ -1307,11 +1395,11 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(StaffingCommitees!A4, HospitalStats!$A$2:$A$57,0),1)</f>
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Laws.Regs!A4, HospitalStats!$A$2:$A$57,0),1)</f>
         <v>25</v>
       </c>
       <c r="C4">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(StaffingCommitees!A4, RNsReg!$A$2:$A$52,0),1)</f>
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Laws.Regs!A4, RNsReg!$A$2:$A$52,0),1)</f>
         <v>25010</v>
       </c>
     </row>
@@ -1320,11 +1408,11 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(StaffingCommitees!A5, HospitalStats!$A$2:$A$57,0),1)</f>
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Laws.Regs!A5, HospitalStats!$A$2:$A$57,0),1)</f>
         <v>147</v>
       </c>
       <c r="C5">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(StaffingCommitees!A5, RNsReg!$A$2:$A$52,0),1)</f>
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Laws.Regs!A5, RNsReg!$A$2:$A$52,0),1)</f>
         <v>172052</v>
       </c>
     </row>
@@ -1333,11 +1421,11 @@
         <v>43</v>
       </c>
       <c r="B6">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(StaffingCommitees!A6, HospitalStats!$A$2:$A$57,0),1)</f>
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Laws.Regs!A6, HospitalStats!$A$2:$A$57,0),1)</f>
         <v>37</v>
       </c>
       <c r="C6">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(StaffingCommitees!A6, RNsReg!$A$2:$A$52,0),1)</f>
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Laws.Regs!A6, RNsReg!$A$2:$A$52,0),1)</f>
         <v>30957</v>
       </c>
     </row>
@@ -1346,11 +1434,11 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(StaffingCommitees!A7, HospitalStats!$A$2:$A$57,0),1)</f>
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Laws.Regs!A7, HospitalStats!$A$2:$A$57,0),1)</f>
         <v>367</v>
       </c>
       <c r="C7">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(StaffingCommitees!A7, RNsReg!$A$2:$A$52,0),1)</f>
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Laws.Regs!A7, RNsReg!$A$2:$A$52,0),1)</f>
         <v>265081</v>
       </c>
     </row>
@@ -1359,11 +1447,11 @@
         <v>53</v>
       </c>
       <c r="B8">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(StaffingCommitees!A8, HospitalStats!$A$2:$A$57,0),1)</f>
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Laws.Regs!A8, HospitalStats!$A$2:$A$57,0),1)</f>
         <v>64</v>
       </c>
       <c r="C8">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(StaffingCommitees!A8, RNsReg!$A$2:$A$52,0),1)</f>
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Laws.Regs!A8, RNsReg!$A$2:$A$52,0),1)</f>
         <v>46939</v>
       </c>
     </row>
@@ -1372,22 +1460,88 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(StaffingCommitees!A9, HospitalStats!$A$2:$A$57,0),1)</f>
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Laws.Regs!A9, HospitalStats!$A$2:$A$57,0),1)</f>
         <v>55</v>
       </c>
       <c r="C9">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(StaffingCommitees!A9, RNsReg!$A$2:$A$52,0),1)</f>
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Laws.Regs!A9, RNsReg!$A$2:$A$52,0),1)</f>
         <v>77779</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="6">
-        <f>SUM(B2:B9)</f>
-        <v>872</v>
-      </c>
-      <c r="C10" s="6">
-        <f>SUM(C2:C9)</f>
-        <v>821064</v>
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>342</v>
+      </c>
+      <c r="C10">
+        <v>339108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>101246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <v>98623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>190</v>
+      </c>
+      <c r="C13">
+        <v>145729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>13681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>7783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="5">
+        <f>SUM(B2:B15)</f>
+        <v>1601</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUM(C2:C15)</f>
+        <v>1527234</v>
       </c>
     </row>
   </sheetData>
@@ -1403,16 +1557,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="3" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1428,38 +1583,493 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <f>INDEX(HospitalStats!$B$2:$B$57, MATCH(Law!A2, HospitalStats!$A2:$A$57,0),1)</f>
-        <v>342</v>
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A2, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>92</v>
       </c>
       <c r="C2">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Law!A2, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>339108</v>
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A2, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>65002</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A3, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A3, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>8033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A4, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A4, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>54716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A5, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A5, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>35581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A6, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A6, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>56969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A7, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A7, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>8701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A8, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A8, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A9, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>217</v>
+      </c>
+      <c r="C9">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A9, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>249436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A10, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>113</v>
+      </c>
+      <c r="C10">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A10, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>102214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A11, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A11, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A12, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A12, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>18131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A13, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A13, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>99898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A14, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A14, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A15, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A15, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>29058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A16, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A16, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>58861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A17, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>105</v>
+      </c>
+      <c r="C17">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A17, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>33801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A18, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A18, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>20154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A19, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A19, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>72084</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A20, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>105</v>
+      </c>
+      <c r="C20">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A20, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>125490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A21, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>70</v>
+      </c>
+      <c r="C21">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A21, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>40856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A22, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>85</v>
+      </c>
+      <c r="C22">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A22, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>79910</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A23, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A23, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>13040</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A24, HospitalStats!$A$2:$A$57,0),1)</f>
         <v>27</v>
       </c>
-      <c r="B3">
-        <f>INDEX(HospitalStats!$B$2:$B$57, MATCH(Law!A3, HospitalStats!$A$3:$A$57,0),1)</f>
-        <v>105</v>
-      </c>
-      <c r="C3">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Law!A3, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>101246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="6">
-        <f>SUM(B2:B3)</f>
-        <v>447</v>
-      </c>
-      <c r="C4" s="6">
-        <f>SUM(C2:C3)</f>
-        <v>440354</v>
+      <c r="C24">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A24, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>25407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A25, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A25, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>10471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A26, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A26, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>19602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A27, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>109</v>
+      </c>
+      <c r="C27">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A27, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>71622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A28, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A28, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>9264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A29, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>93</v>
+      </c>
+      <c r="C29">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A29, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>39817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A30, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>178</v>
+      </c>
+      <c r="C30">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A30, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>172963</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A31, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>63</v>
+      </c>
+      <c r="C31">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A31, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>36228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A32, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A32, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>12892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A33, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>107</v>
+      </c>
+      <c r="C33">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A33, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>80111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A34, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A34, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>14638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A35, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>90</v>
+      </c>
+      <c r="C35">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A35, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>90939</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A36, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A36, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>22545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A37, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>77</v>
+      </c>
+      <c r="C37">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A37, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>27740</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A38, HospitalStats!$A$2:$A$57,0),1)</f>
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A38, RNsReg!$A$2:$A$52,0),1)</f>
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="5">
+        <f>SUM(B2:B38)</f>
+        <v>2290</v>
+      </c>
+      <c r="C39" s="5">
+        <f>SUM(C2:C38)</f>
+        <v>1859434</v>
       </c>
     </row>
   </sheetData>
@@ -1475,90 +2085,431 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="1" max="2" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>65002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>8033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>54716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>35581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>339108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>56969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>8701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>249436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>102214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>18131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>157806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>99898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>29058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>58861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>33801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>20154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>72084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>101246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>125490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>77779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>40856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>79910</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>13040</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>25407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>25010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>10471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Disclosure!A2, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>74</v>
-      </c>
-      <c r="C2">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Disclosure!A2, RNsReg!$A$2:$A$52,0),1)</f>
+      <c r="B32">
         <v>98623</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>19602</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B3">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Disclosure!A3, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>190</v>
-      </c>
-      <c r="C3">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Disclosure!A3, RNsReg!$A$2:$A$52,0),1)</f>
+      <c r="B34">
         <v>145729</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>71622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>9264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>172052</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>39817</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>30957</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>172963</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B4">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Disclosure!A4, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Disclosure!A4, RNsReg!$A$2:$A$52,0),1)</f>
+      <c r="B41">
         <v>13681</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>36228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>12892</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>80111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>265081</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>14638</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B5">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Disclosure!A5, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Disclosure!A5, RNsReg!$A$2:$A$52,0),1)</f>
+      <c r="B47">
         <v>7783</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="6">
-        <f>SUM(B2:B5)</f>
-        <v>282</v>
-      </c>
-      <c r="C6" s="6">
-        <f>SUM(C2:C5)</f>
-        <v>265816</v>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>90939</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>46939</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>22545</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>27740</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>2856</v>
       </c>
     </row>
   </sheetData>
@@ -1574,977 +2525,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A2, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>92</v>
-      </c>
-      <c r="C2">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A2, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>65002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A3, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A3, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>8033</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A4, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>70</v>
-      </c>
-      <c r="C4">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A4, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>54716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A5, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A5, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>35581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A6, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>54</v>
-      </c>
-      <c r="C6">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A6, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>56969</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A7, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A7, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>8701</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A8, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A8, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>4272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A9, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>217</v>
-      </c>
-      <c r="C9">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A9, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>249436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A10, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>113</v>
-      </c>
-      <c r="C10">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A10, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>102214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A11, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A11, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A12, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A12, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>18131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A13, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>97</v>
-      </c>
-      <c r="C13">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A13, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>99898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A14, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A14, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A15, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>58</v>
-      </c>
-      <c r="C15">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A15, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>29058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A16, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>75</v>
-      </c>
-      <c r="C16">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A16, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>58861</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A17, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>105</v>
-      </c>
-      <c r="C17">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A17, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>33801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A18, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A18, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>20154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A19, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>52</v>
-      </c>
-      <c r="C19">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A19, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>72084</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A20, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>105</v>
-      </c>
-      <c r="C20">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A20, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>125490</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A21, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>70</v>
-      </c>
-      <c r="C21">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A21, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>40856</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A22, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>85</v>
-      </c>
-      <c r="C22">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A22, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>79910</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A23, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>16</v>
-      </c>
-      <c r="C23">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A23, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>13040</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A24, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>27</v>
-      </c>
-      <c r="C24">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A24, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>25407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A25, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>14</v>
-      </c>
-      <c r="C25">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A25, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>10471</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A26, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>37</v>
-      </c>
-      <c r="C26">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A26, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>19602</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A27, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>109</v>
-      </c>
-      <c r="C27">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A27, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>71622</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A28, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A28, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>9264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A29, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>93</v>
-      </c>
-      <c r="C29">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A29, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>39817</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A30, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>178</v>
-      </c>
-      <c r="C30">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A30, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>172963</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A31, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>63</v>
-      </c>
-      <c r="C31">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A31, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>36228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A32, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>25</v>
-      </c>
-      <c r="C32">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A32, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>12892</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A33, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>107</v>
-      </c>
-      <c r="C33">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A33, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>80111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A34, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>36</v>
-      </c>
-      <c r="C34">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A34, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>14638</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A35, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>90</v>
-      </c>
-      <c r="C35">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A35, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>90939</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A36, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>36</v>
-      </c>
-      <c r="C36">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A36, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>22545</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A37, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>77</v>
-      </c>
-      <c r="C37">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A37, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>27740</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38">
-        <f>INDEX(HospitalStats!$B$2:$F$57, MATCH(Nothing!A38, HospitalStats!$A$2:$A$57,0),1)</f>
-        <v>14</v>
-      </c>
-      <c r="C38">
-        <f>INDEX(RNsReg!$B$2:$B$52, MATCH(Nothing!A38, RNsReg!$A$2:$A$52,0),1)</f>
-        <v>2856</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="6">
-        <f>SUM(B2:B38)</f>
-        <v>2290</v>
-      </c>
-      <c r="C39" s="6">
-        <f>SUM(C2:C38)</f>
-        <v>1859434</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="2" width="21.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>65002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>8033</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>54716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>35581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>339108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>56969</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>45440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>8701</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>4272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>249436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>102214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>18131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>157806</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>99898</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>29058</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>58861</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>33801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>20154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>72084</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>101246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>125490</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>77779</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>40856</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27">
-        <v>79910</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28">
-        <v>13040</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29">
-        <v>25407</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30">
-        <v>25010</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31">
-        <v>10471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32">
-        <v>98623</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33">
-        <v>19602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34">
-        <v>145729</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35">
-        <v>71622</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>9264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37">
-        <v>172052</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>39817</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>30957</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40">
-        <v>172963</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41">
-        <v>13681</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42">
-        <v>36228</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43">
-        <v>12892</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44">
-        <v>80111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45">
-        <v>265081</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46">
-        <v>14638</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47">
-        <v>7783</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48">
-        <v>90939</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49">
-        <v>46939</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50">
-        <v>22545</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51">
-        <v>27740</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52">
-        <v>2856</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/SamplingPlan/SamplingDesign.xlsx
+++ b/SamplingPlan/SamplingDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="0" windowWidth="25600" windowHeight="16120" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="StudyDesign" sheetId="1" r:id="rId1"/>
@@ -502,11 +502,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -671,17 +671,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -699,6 +688,17 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -731,30 +731,30 @@
   <autoFilter ref="A1:I3"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Stratum" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="8"/>
-    <tableColumn id="9" name="Number of States" totalsRowLabel="51" dataDxfId="11" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Nh-Hospital Idea" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="6">
+    <tableColumn id="9" name="Number of States" totalsRowLabel="51" dataDxfId="16" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Nh-Hospital Idea" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="6">
       <totalsRowFormula>SUM(Table1[Nh-Hospital Idea])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Nh-Nursing Idea" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="5">
+    <tableColumn id="6" name="Nh-Nursing Idea" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="5">
       <totalsRowFormula>SUM(Table1[Nh-Nursing Idea])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Wh-Hospital Idea" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="4">
+    <tableColumn id="3" name="Wh-Hospital Idea" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="4">
       <calculatedColumnFormula>C2/($C$4)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Wh-Hospital Idea])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Wh-NursingIdea" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="3">
+    <tableColumn id="7" name="Wh-NursingIdea" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="3">
       <calculatedColumnFormula>D2/$D$4</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Wh-NursingIdea])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="nh-Hospitals" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="2">
+    <tableColumn id="4" name="nh-Hospitals" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="2">
       <calculatedColumnFormula>I2*C2</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[nh-Hospitals])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="nh-Nurses" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
+    <tableColumn id="8" name="nh-Nurses" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="1">
       <calculatedColumnFormula>D2*I2</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[nh-Nurses])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="fh" totalsRowLabel="0.05" dataDxfId="12" totalsRowDxfId="0"/>
+    <tableColumn id="5" name="fh" totalsRowLabel="0.05" dataDxfId="9" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1134,25 +1134,25 @@
       <c r="B2" s="9">
         <v>14</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>1601</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>1527234</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <f t="shared" ref="E2:E3" si="0">C2/($C$4)</f>
         <v>0.41146234901053713</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <f t="shared" ref="F2:F3" si="1">D2/$D$4</f>
         <v>0.45095474371860483</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <f>I2*C2</f>
         <v>80.050000000000011</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <f>D2*I2</f>
         <v>76361.7</v>
       </c>
@@ -1173,11 +1173,11 @@
       <c r="D3" s="11">
         <v>1859434</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <f t="shared" si="0"/>
         <v>0.58853765098946287</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <f t="shared" si="1"/>
         <v>0.54904525628139511</v>
       </c>
@@ -1229,13 +1229,13 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:9">
@@ -2527,7 +2527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
